--- a/UX/T-P_ShootMeUp-ESR-JdT.xlsx
+++ b/UX/T-P_ShootMeUp-ESR-JdT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg13qnw\Documents\GitHub\P_ShootMeUp-Eliott\UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5224D-888F-4F31-B18D-899171E49319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D51C37-FA4E-477E-9163-5A0DCFC4BB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Auteur:</t>
   </si>
@@ -109,6 +109,15 @@
   <si>
     <t>Pas le temps de terminer.</t>
   </si>
+  <si>
+    <t>Finir le premier persona</t>
+  </si>
+  <si>
+    <t>Commencer le deuxième persona</t>
+  </si>
+  <si>
+    <t>Présentation du professeur</t>
+  </si>
 </sst>
 </file>
 
@@ -116,9 +125,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-CH,1]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0\ &quot;h&quot;"/>
-    <numFmt numFmtId="167" formatCode="dd\ mmm"/>
-    <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;h&quot;"/>
+    <numFmt numFmtId="166" formatCode="dd\ mmm"/>
+    <numFmt numFmtId="167" formatCode="00\ &quot;min&quot;"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -311,39 +320,39 @@
     <xf numFmtId="20" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -378,7 +387,11 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -388,10 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -474,7 +483,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
+      <numFmt numFmtId="167" formatCode="00\ &quot;min&quot;"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -495,7 +504,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0\ &quot;h&quot;"/>
+      <numFmt numFmtId="165" formatCode="0\ &quot;h&quot;"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -515,7 +524,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="dd\ mmm"/>
+      <numFmt numFmtId="166" formatCode="dd\ mmm"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -886,7 +895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -918,15 +927,15 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -935,13 +944,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="45" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>1 heures 5 minutes</v>
+        <v>2 heures 35 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -960,20 +969,20 @@
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="E4" s="23">
         <f>SUM(C4:D4)</f>
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:15" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
@@ -1036,7 +1045,7 @@
       <c r="F8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="46" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
@@ -1050,15 +1059,23 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="str">
+      <c r="A9" s="42">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="B9" s="33">
+        <v>45541</v>
+      </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="35">
+        <v>30</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="G9" s="39"/>
       <c r="M9" t="s">
         <v>14</v>
@@ -1071,16 +1088,26 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="str">
+      <c r="A10" s="41">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="29">
+        <v>45541</v>
+      </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="38"/>
+      <c r="D10" s="31">
+        <v>35</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="M10" t="s">
         <v>3</v>
       </c>
@@ -1092,15 +1119,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="str">
+      <c r="A11" s="42">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="B11" s="33">
+        <v>45541</v>
+      </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="22"/>
+      <c r="D11" s="35">
+        <v>25</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="39"/>
       <c r="M11" t="s">
         <v>4</v>
@@ -7454,6 +7489,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34298955776df91f451dfdd912b0d80d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed9741631eefaa61c396a6d47d02de0f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -7648,27 +7703,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7685,25 +7741,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/UX/T-P_ShootMeUp-ESR-JdT.xlsx
+++ b/UX/T-P_ShootMeUp-ESR-JdT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg13qnw\Documents\GitHub\P_ShootMeUp-Eliott\UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D51C37-FA4E-477E-9163-5A0DCFC4BB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46968C0-3A4D-40D8-B2EA-32EDCF87C10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Auteur:</t>
   </si>
@@ -116,7 +116,19 @@
     <t>Commencer le deuxième persona</t>
   </si>
   <si>
-    <t>Présentation du professeur</t>
+    <t>Présentation par le professeur</t>
+  </si>
+  <si>
+    <t>Finir le deuxième persona</t>
+  </si>
+  <si>
+    <t>Création du wireframe pour le In-game</t>
+  </si>
+  <si>
+    <t>Création du wireframe pour le Main Menu</t>
+  </si>
+  <si>
+    <t>Création du wireframe pour l'Editeur de niveaux</t>
   </si>
 </sst>
 </file>
@@ -895,7 +907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -950,7 +962,7 @@
       <c r="B3" s="49"/>
       <c r="C3" s="45" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>2 heures 35 minutes</v>
+        <v>5 heures 25 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -965,15 +977,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="19">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="E4" s="23">
         <f>SUM(C4:D4)</f>
-        <v>155</v>
+        <v>325</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -1148,15 +1160,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="str">
+      <c r="A12" s="41">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="29"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="29">
+        <v>45544</v>
+      </c>
       <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="31">
+        <v>25</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="38"/>
       <c r="N12">
         <v>5</v>
@@ -1166,15 +1186,23 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="str">
+      <c r="A13" s="42">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="33"/>
+        <v>37</v>
+      </c>
+      <c r="B13" s="33">
+        <v>45544</v>
+      </c>
       <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="35">
+        <v>10</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="N13">
         <v>6</v>
@@ -1184,15 +1212,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="str">
+      <c r="A14" s="41">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="29">
+        <v>45544</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
       <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="38"/>
       <c r="N14">
         <v>7</v>
@@ -1202,15 +1238,25 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="str">
+      <c r="A15" s="42">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="B15" s="33">
+        <v>45544</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35">
+        <v>15</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="39"/>
       <c r="N15">
         <v>8</v>
@@ -7489,26 +7535,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34298955776df91f451dfdd912b0d80d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed9741631eefaa61c396a6d47d02de0f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -7703,28 +7729,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7741,4 +7766,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/UX/T-P_ShootMeUp-ESR-JdT.xlsx
+++ b/UX/T-P_ShootMeUp-ESR-JdT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg13qnw\Documents\GitHub\P_ShootMeUp-Eliott\UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46968C0-3A4D-40D8-B2EA-32EDCF87C10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE9C7D-5E2B-4F52-90B9-78A36A1BF5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>28.08.2024 au 1.11.2024</t>
   </si>
   <si>
-    <t>Création de la To-di list</t>
-  </si>
-  <si>
     <t>Création du premier persona</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Création du wireframe pour l'Editeur de niveaux</t>
+  </si>
+  <si>
+    <t>Création de la To-do list</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G7" s="37"/>
     </row>
@@ -1055,10 +1055,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="46" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>22</v>
       </c>
       <c r="M8" t="s">
         <v>2</v>
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="39"/>
       <c r="M9" t="s">
@@ -1115,10 +1115,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
         <v>3</v>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="39"/>
       <c r="M11" t="s">
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="38"/>
       <c r="N12">
@@ -1201,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="39"/>
       <c r="N13">
@@ -1227,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="38"/>
       <c r="N14">
@@ -1255,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="39"/>
       <c r="N15">
@@ -7535,6 +7535,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34298955776df91f451dfdd912b0d80d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed9741631eefaa61c396a6d47d02de0f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -7729,27 +7749,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7766,25 +7787,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/UX/T-P_ShootMeUp-ESR-JdT.xlsx
+++ b/UX/T-P_ShootMeUp-ESR-JdT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg13qnw\Documents\GitHub\P_ShootMeUp-Eliott\UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE9C7D-5E2B-4F52-90B9-78A36A1BF5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4CE810-A358-4AB7-972B-8A9D752C2625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Auteur:</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Création de la To-do list</t>
+  </si>
+  <si>
+    <t>Création de la palette de couleur</t>
+  </si>
+  <si>
+    <t>Continuation du wireframe pour l'Editeur de niveaux</t>
+  </si>
+  <si>
+    <t>Je suis encore indécis sur le Primary</t>
   </si>
 </sst>
 </file>
@@ -907,7 +916,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -962,7 +971,7 @@
       <c r="B3" s="49"/>
       <c r="C3" s="45" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>5 heures 25 minutes</v>
+        <v>6 heures 55 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -977,15 +986,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="19">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="E4" s="23">
         <f>SUM(C4:D4)</f>
-        <v>325</v>
+        <v>415</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -1266,16 +1275,26 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="str">
+      <c r="A16" s="41">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="B16" s="29">
+        <v>45555</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
       <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="38"/>
+      <c r="E16" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>32</v>
+      </c>
       <c r="O16">
         <v>40</v>
       </c>
@@ -1287,10 +1306,18 @@
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="39"/>
+      <c r="D17" s="35">
+        <v>30</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="O17">
         <v>45</v>
       </c>
@@ -7535,26 +7562,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34298955776df91f451dfdd912b0d80d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed9741631eefaa61c396a6d47d02de0f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -7749,28 +7756,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7787,4 +7793,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/UX/T-P_ShootMeUp-ESR-JdT.xlsx
+++ b/UX/T-P_ShootMeUp-ESR-JdT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg13qnw\Documents\GitHub\P_ShootMeUp-Eliott\UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4CE810-A358-4AB7-972B-8A9D752C2625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB792A80-752E-41D5-9775-F58936226288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Auteur:</t>
   </si>
@@ -119,25 +119,28 @@
     <t>Finir le deuxième persona</t>
   </si>
   <si>
-    <t>Création du wireframe pour le In-game</t>
-  </si>
-  <si>
-    <t>Création du wireframe pour le Main Menu</t>
-  </si>
-  <si>
-    <t>Création du wireframe pour l'Editeur de niveaux</t>
-  </si>
-  <si>
     <t>Création de la To-do list</t>
   </si>
   <si>
     <t>Création de la palette de couleur</t>
   </si>
   <si>
-    <t>Continuation du wireframe pour l'Editeur de niveaux</t>
+    <t>Je suis encore indécis sur le Primary</t>
   </si>
   <si>
-    <t>Je suis encore indécis sur le Primary</t>
+    <t>Continuation du wireframe low-fidelity pour l'Editeur de niveaux</t>
+  </si>
+  <si>
+    <t>Création du wireframe low-fidelity pour l'Editeur de niveaux</t>
+  </si>
+  <si>
+    <t>Création du wireframe low-fidelity pour le In-game</t>
+  </si>
+  <si>
+    <t>Création du wireframe low-fidelity pour le Main Menu</t>
+  </si>
+  <si>
+    <t>Complétion du wireframe low-fidelity pour l'Editeur de niveaux</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -971,7 +974,7 @@
       <c r="B3" s="49"/>
       <c r="C3" s="45" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>6 heures 55 minutes</v>
+        <v>8 heures 25 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -986,15 +989,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="19">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="E4" s="23">
         <f>SUM(C4:D4)</f>
-        <v>415</v>
+        <v>505</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -1044,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="37"/>
     </row>
@@ -1210,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G13" s="39"/>
       <c r="N13">
@@ -1236,7 +1239,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G14" s="38"/>
       <c r="N14">
@@ -1264,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="39"/>
       <c r="N15">
@@ -1290,10 +1293,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O16">
         <v>40</v>
@@ -1313,7 +1316,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>21</v>
@@ -1328,10 +1331,18 @@
         <v/>
       </c>
       <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="22"/>
+      <c r="C18" s="30">
+        <v>1</v>
+      </c>
+      <c r="D18" s="31">
+        <v>30</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="O18">
         <v>50</v>
@@ -7562,6 +7573,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34298955776df91f451dfdd912b0d80d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed9741631eefaa61c396a6d47d02de0f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -7756,27 +7787,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7793,25 +7825,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/UX/T-P_ShootMeUp-ESR-JdT.xlsx
+++ b/UX/T-P_ShootMeUp-ESR-JdT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg13qnw\Documents\GitHub\P_ShootMeUp-Eliott\UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB792A80-752E-41D5-9775-F58936226288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE152D-00BA-4179-818F-7DE1E6AB5B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Auteur:</t>
   </si>
@@ -101,9 +101,6 @@
     <t>28.08.2024 au 1.11.2024</t>
   </si>
   <si>
-    <t>Création du premier persona</t>
-  </si>
-  <si>
     <t>Pas le temps de terminer.</t>
   </si>
   <si>
@@ -119,28 +116,34 @@
     <t>Finir le deuxième persona</t>
   </si>
   <si>
-    <t>Création de la To-do list</t>
-  </si>
-  <si>
-    <t>Création de la palette de couleur</t>
-  </si>
-  <si>
     <t>Je suis encore indécis sur le Primary</t>
   </si>
   <si>
-    <t>Continuation du wireframe low-fidelity pour l'Editeur de niveaux</t>
+    <t>Commencer le mockup du Level Editor</t>
   </si>
   <si>
-    <t>Création du wireframe low-fidelity pour l'Editeur de niveaux</t>
+    <t>Finir le wireframe du Level Editor</t>
   </si>
   <si>
-    <t>Création du wireframe low-fidelity pour le In-game</t>
+    <t>Continuer le wireframe du Level Editor</t>
   </si>
   <si>
-    <t>Création du wireframe low-fidelity pour le Main Menu</t>
+    <t>Créer la palette de couleur</t>
   </si>
   <si>
-    <t>Complétion du wireframe low-fidelity pour l'Editeur de niveaux</t>
+    <t>Commencer le wireframe pour le Level Editor</t>
+  </si>
+  <si>
+    <t>Commencer et finir le wireframe pour le Main Menu</t>
+  </si>
+  <si>
+    <t>Commencer et finir le wireframe pour le In Game Screen</t>
+  </si>
+  <si>
+    <t>Commencer le premier persona</t>
+  </si>
+  <si>
+    <t>Créere la To-do list</t>
   </si>
 </sst>
 </file>
@@ -919,7 +922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -974,7 +977,7 @@
       <c r="B3" s="49"/>
       <c r="C3" s="45" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>8 heures 25 minutes</v>
+        <v>11 heures 15 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -989,15 +992,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="19">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="E4" s="23">
         <f>SUM(C4:D4)</f>
-        <v>505</v>
+        <v>675</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -1047,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G7" s="37"/>
     </row>
@@ -1067,10 +1070,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="46" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>21</v>
       </c>
       <c r="M8" t="s">
         <v>2</v>
@@ -1098,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="39"/>
       <c r="M9" t="s">
@@ -1127,10 +1130,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
         <v>3</v>
@@ -1158,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="39"/>
       <c r="M11" t="s">
@@ -1187,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="38"/>
       <c r="N12">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="39"/>
       <c r="N13">
@@ -1239,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="38"/>
       <c r="N14">
@@ -1293,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O16">
         <v>40</v>
@@ -1316,10 +1319,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17">
         <v>45</v>
@@ -1341,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G18" s="38"/>
       <c r="O18">
@@ -1354,10 +1357,18 @@
         <v/>
       </c>
       <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="22"/>
+      <c r="C19" s="34">
+        <v>2</v>
+      </c>
+      <c r="D19" s="35">
+        <v>50</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="G19" s="39"/>
       <c r="O19">
         <v>55</v>
@@ -7573,26 +7584,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34298955776df91f451dfdd912b0d80d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed9741631eefaa61c396a6d47d02de0f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -7787,28 +7778,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7825,4 +7815,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/UX/T-P_ShootMeUp-ESR-JdT.xlsx
+++ b/UX/T-P_ShootMeUp-ESR-JdT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg13qnw\Documents\GitHub\P_ShootMeUp-Eliott\UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE152D-00BA-4179-818F-7DE1E6AB5B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644F34D0-7A64-4D83-B116-5D53EC8EDB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Auteur:</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Créere la To-do list</t>
+  </si>
+  <si>
+    <t>Création du wireframe pour la page des High Scores</t>
+  </si>
+  <si>
+    <t>Révision du travail avec le CdC afin de vérifier que tous les points aient bien été effectués</t>
   </si>
 </sst>
 </file>
@@ -922,7 +928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -977,7 +983,7 @@
       <c r="B3" s="49"/>
       <c r="C3" s="45" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>11 heures 15 minutes</v>
+        <v>12 heures 45 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -992,15 +998,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="19">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="E4" s="23">
         <f>SUM(C4:D4)</f>
-        <v>675</v>
+        <v>765</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -1306,11 +1312,13 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="str">
+      <c r="A17" s="42">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="33"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="33">
+        <v>45558</v>
+      </c>
       <c r="C17" s="34"/>
       <c r="D17" s="35">
         <v>30</v>
@@ -1329,11 +1337,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="str">
+      <c r="A18" s="41">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="29"/>
+        <v>39</v>
+      </c>
+      <c r="B18" s="29">
+        <v>45558</v>
+      </c>
       <c r="C18" s="30">
         <v>1</v>
       </c>
@@ -1352,11 +1362,13 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="str">
+      <c r="A19" s="42">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="B19" s="33">
+        <v>45572</v>
+      </c>
       <c r="C19" s="34">
         <v>2</v>
       </c>
@@ -1375,27 +1387,45 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="str">
+      <c r="A20" s="41">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="B20" s="29">
+        <v>45593</v>
+      </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="22"/>
+      <c r="D20" s="31">
+        <v>30</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="str">
+      <c r="A21" s="42">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="22"/>
+        <v>44</v>
+      </c>
+      <c r="B21" s="33">
+        <v>45593</v>
+      </c>
+      <c r="C21" s="34">
+        <v>1</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -7584,6 +7614,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34298955776df91f451dfdd912b0d80d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed9741631eefaa61c396a6d47d02de0f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -7778,27 +7828,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7815,25 +7866,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>